--- a/data_input/CR/CRR_june2023.xlsx
+++ b/data_input/CR/CRR_june2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\ข้อมูลส่ง ฝ่ายความเสี่ยงย่อย\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F034C515-0703-4091-A695-07996699E57C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CDA2C1-8FA3-42E4-B429-C2A9B4E6614D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="750" windowWidth="13425" windowHeight="14850" tabRatio="601" firstSheet="3" activeTab="4" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="369">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1440,7 +1437,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1478,7 +1475,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1516,7 +1513,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2405,7 +2402,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2461,7 +2458,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2514,7 +2511,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2561,7 +2558,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2599,7 +2596,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2616,97 +2613,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2919,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>750382531</v>
@@ -2931,7 +2928,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -2940,10 +2937,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -3009,7 +3006,7 @@
         <v>141</v>
       </c>
       <c r="AD2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI2" t="s">
         <v>38</v>
@@ -3021,7 +3018,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3071,7 +3068,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3118,7 +3115,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3159,7 +3156,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3191,7 +3188,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3202,97 +3199,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3355,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3416,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3452,43 +3449,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3499,7 +3496,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="7">
         <v>730008234</v>
@@ -3508,7 +3505,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -3517,16 +3514,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3541,31 +3538,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -3583,7 +3580,7 @@
         <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3595,13 +3592,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3616,31 +3613,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3648,7 +3645,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3">
         <v>730008234</v>
@@ -3657,7 +3654,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -3666,7 +3663,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" s="5">
         <v>243440</v>
@@ -3675,7 +3672,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -3690,31 +3687,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -3732,7 +3729,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -3744,13 +3741,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -3765,31 +3762,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -3797,7 +3794,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4">
         <v>730021227</v>
@@ -3806,7 +3803,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -3815,16 +3812,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -3839,31 +3836,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" t="s">
         <v>185</v>
       </c>
-      <c r="T4" t="s">
-        <v>186</v>
-      </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>0.84</v>
@@ -3881,7 +3878,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -3890,13 +3887,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -3911,31 +3908,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -3943,7 +3940,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5">
         <v>750708916</v>
@@ -3952,7 +3949,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -3967,7 +3964,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
@@ -3982,31 +3979,31 @@
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -4024,16 +4021,16 @@
         <v>141</v>
       </c>
       <c r="AC5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4048,31 +4045,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4080,16 +4077,16 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -4098,7 +4095,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="5">
         <v>243593</v>
@@ -4107,7 +4104,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -4122,31 +4119,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>2.66</v>
@@ -4164,40 +4161,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7">
         <v>360002322</v>
@@ -4214,7 +4211,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -4223,16 +4220,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -4247,31 +4244,31 @@
         <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.81</v>
@@ -4289,105 +4286,105 @@
         <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4467,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6980E0D-210D-494C-9DD0-08316EE5909D}">
   <dimension ref="A1:BD31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4528,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4564,43 +4561,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4611,7 +4608,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>610001657</v>
@@ -4620,7 +4617,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4629,13 +4626,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -4650,31 +4647,31 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
       <c r="R2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X2">
         <v>9.3800000000000008</v>
@@ -4692,7 +4689,7 @@
         <v>139</v>
       </c>
       <c r="AC2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -4704,13 +4701,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4725,31 +4722,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4757,7 +4754,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3">
         <v>750968080</v>
@@ -4766,7 +4763,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -4775,13 +4772,13 @@
         <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -4796,31 +4793,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X3">
         <v>1.88</v>
@@ -4838,7 +4835,7 @@
         <v>138</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4850,13 +4847,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4871,31 +4868,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4903,16 +4900,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -4921,16 +4918,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -4945,31 +4942,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>22.65</v>
@@ -4987,7 +4984,7 @@
         <v>140</v>
       </c>
       <c r="AC4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4996,13 +4993,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5017,31 +5014,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="8">
         <v>750755559</v>
@@ -5058,7 +5055,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -5067,13 +5064,13 @@
         <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
@@ -5088,31 +5085,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>1.76</v>
@@ -5130,16 +5127,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5154,31 +5151,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5186,7 +5183,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6">
         <v>750662824</v>
@@ -5195,7 +5192,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5204,13 +5201,13 @@
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -5225,31 +5222,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X6">
         <v>2.31</v>
@@ -5267,40 +5264,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5308,7 +5305,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7">
         <v>750383321</v>
@@ -5317,7 +5314,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -5326,16 +5323,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5350,31 +5347,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -5392,27 +5389,27 @@
         <v>139</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -5421,13 +5418,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5442,31 +5439,31 @@
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" t="s">
         <v>188</v>
       </c>
-      <c r="U8" t="s">
-        <v>189</v>
-      </c>
       <c r="V8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X8">
         <v>4.7300000000000004</v>
@@ -5484,21 +5481,21 @@
         <v>139</v>
       </c>
       <c r="AC8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5507,13 +5504,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -5528,31 +5525,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X9">
         <v>14.98</v>
@@ -5570,22 +5567,22 @@
         <v>138</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -5594,13 +5591,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -5615,31 +5612,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>4.5199999999999996</v>
@@ -5657,15 +5654,15 @@
         <v>137</v>
       </c>
       <c r="AC10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11">
         <v>730005789</v>
@@ -5674,7 +5671,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -5683,13 +5680,13 @@
         <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -5704,31 +5701,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" t="s">
         <v>188</v>
       </c>
-      <c r="U11" t="s">
-        <v>189</v>
-      </c>
       <c r="V11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X11">
         <v>1.4</v>
@@ -5746,21 +5743,21 @@
         <v>139</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -5775,7 +5772,7 @@
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -5790,31 +5787,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" t="s">
         <v>188</v>
       </c>
-      <c r="U12" t="s">
-        <v>189</v>
-      </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X12">
         <v>1.41</v>
@@ -5832,21 +5829,21 @@
         <v>139</v>
       </c>
       <c r="AC12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -5855,13 +5852,13 @@
         <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -5876,31 +5873,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" t="s">
         <v>198</v>
-      </c>
-      <c r="W13" t="s">
-        <v>199</v>
       </c>
       <c r="X13">
         <v>5.83</v>
@@ -5918,15 +5915,15 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14">
         <v>750905528</v>
@@ -5935,7 +5932,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -5944,7 +5941,7 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H14" s="5">
         <v>243259</v>
@@ -5953,7 +5950,7 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -5968,31 +5965,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X14">
         <v>2.31</v>
@@ -6010,15 +6007,15 @@
         <v>139</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15">
         <v>750852917</v>
@@ -6027,7 +6024,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -6036,13 +6033,13 @@
         <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
@@ -6057,31 +6054,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>8.36</v>
@@ -6099,15 +6096,15 @@
         <v>137</v>
       </c>
       <c r="AC15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16">
         <v>750562727</v>
@@ -6116,7 +6113,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -6125,16 +6122,16 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I16" t="s">
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -6149,31 +6146,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X16">
         <v>5.27</v>
@@ -6191,24 +6188,24 @@
         <v>139</v>
       </c>
       <c r="AC16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -6217,16 +6214,16 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -6241,31 +6238,31 @@
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X17">
         <v>5.62</v>
@@ -6283,15 +6280,15 @@
         <v>138</v>
       </c>
       <c r="AC17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18">
         <v>750912432</v>
@@ -6300,7 +6297,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -6309,7 +6306,7 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H18" s="5">
         <v>243471</v>
@@ -6318,7 +6315,7 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -6333,31 +6330,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V18" t="s">
+        <v>197</v>
+      </c>
+      <c r="W18" t="s">
         <v>198</v>
-      </c>
-      <c r="W18" t="s">
-        <v>199</v>
       </c>
       <c r="X18">
         <v>2.02</v>
@@ -6375,15 +6372,15 @@
         <v>137</v>
       </c>
       <c r="AC18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN18" t="s">
         <v>219</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19">
         <v>750054253</v>
@@ -6392,7 +6389,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6407,7 +6404,7 @@
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -6422,31 +6419,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" t="s">
         <v>171</v>
       </c>
-      <c r="Q19" t="s">
-        <v>172</v>
-      </c>
       <c r="R19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>199</v>
       </c>
       <c r="X19">
         <v>4.42</v>
@@ -6464,15 +6461,15 @@
         <v>138</v>
       </c>
       <c r="AC19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN19" t="s">
         <v>220</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20">
         <v>750326494</v>
@@ -6481,7 +6478,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6490,14 +6487,14 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" t="s">
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -6512,31 +6509,31 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X20">
         <v>2.4300000000000002</v>
@@ -6554,15 +6551,15 @@
         <v>137</v>
       </c>
       <c r="AC20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21">
         <v>750104052</v>
@@ -6571,7 +6568,7 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6586,7 +6583,7 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -6601,31 +6598,31 @@
         <v>78</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" t="s">
         <v>171</v>
       </c>
-      <c r="Q21" t="s">
-        <v>172</v>
-      </c>
       <c r="R21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X21">
         <v>14.95</v>
@@ -6643,24 +6640,24 @@
         <v>139</v>
       </c>
       <c r="AC21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN21" t="s">
         <v>222</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" t="s">
         <v>324</v>
-      </c>
-      <c r="B22" t="s">
-        <v>325</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -6669,16 +6666,16 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
         <v>57</v>
@@ -6693,31 +6690,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X22">
         <v>1.38</v>
@@ -6735,15 +6732,15 @@
         <v>138</v>
       </c>
       <c r="AC22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B23">
         <v>750375083</v>
@@ -6752,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -6761,16 +6758,16 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>57</v>
@@ -6785,31 +6782,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V23" t="s">
         <v>72</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X23">
         <v>4.87</v>
@@ -6827,24 +6824,24 @@
         <v>139</v>
       </c>
       <c r="AC23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -6853,16 +6850,16 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
         <v>56</v>
@@ -6877,31 +6874,31 @@
         <v>77</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X24">
         <v>1.37</v>
@@ -6919,15 +6916,15 @@
         <v>137</v>
       </c>
       <c r="AC24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25">
         <v>750433824</v>
@@ -6936,7 +6933,7 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -6945,7 +6942,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H25" s="5">
         <v>243410</v>
@@ -6954,7 +6951,7 @@
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" t="s">
         <v>56</v>
@@ -6969,31 +6966,31 @@
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V25" t="s">
+        <v>197</v>
+      </c>
+      <c r="W25" t="s">
         <v>198</v>
-      </c>
-      <c r="W25" t="s">
-        <v>199</v>
       </c>
       <c r="X25">
         <v>4.22</v>
@@ -7011,15 +7008,15 @@
         <v>140</v>
       </c>
       <c r="AC25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B26">
         <v>750968080</v>
@@ -7028,7 +7025,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -7037,7 +7034,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H26" s="5">
         <v>243410</v>
@@ -7046,7 +7043,7 @@
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
         <v>56</v>
@@ -7061,31 +7058,31 @@
         <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V26" t="s">
+        <v>197</v>
+      </c>
+      <c r="W26" t="s">
         <v>198</v>
-      </c>
-      <c r="W26" t="s">
-        <v>199</v>
       </c>
       <c r="X26">
         <v>0.66</v>
@@ -7103,21 +7100,21 @@
         <v>137</v>
       </c>
       <c r="AC26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" t="s">
         <v>337</v>
-      </c>
-      <c r="B27" t="s">
-        <v>338</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -7126,7 +7123,7 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H27" s="5">
         <v>243593</v>
@@ -7135,7 +7132,7 @@
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
         <v>57</v>
@@ -7150,31 +7147,31 @@
         <v>75</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V27" t="s">
+        <v>197</v>
+      </c>
+      <c r="W27" t="s">
         <v>198</v>
-      </c>
-      <c r="W27" t="s">
-        <v>199</v>
       </c>
       <c r="X27">
         <v>4.0199999999999996</v>
@@ -7192,12 +7189,12 @@
         <v>138</v>
       </c>
       <c r="AC27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B28">
         <v>750648988</v>
@@ -7206,7 +7203,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
@@ -7221,7 +7218,7 @@
         <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s">
         <v>56</v>
@@ -7236,31 +7233,31 @@
         <v>76</v>
       </c>
       <c r="O28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T28" t="s">
+        <v>187</v>
+      </c>
+      <c r="U28" t="s">
         <v>188</v>
       </c>
-      <c r="U28" t="s">
-        <v>189</v>
-      </c>
       <c r="V28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X28">
         <v>1.26</v>
@@ -7278,21 +7275,21 @@
         <v>137</v>
       </c>
       <c r="AC28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E29" t="s">
         <v>44</v>
@@ -7301,16 +7298,16 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I29" t="s">
         <v>49</v>
       </c>
       <c r="J29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s">
         <v>56</v>
@@ -7325,31 +7322,31 @@
         <v>77</v>
       </c>
       <c r="O29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X29">
         <v>1.37</v>
@@ -7367,12 +7364,12 @@
         <v>137</v>
       </c>
       <c r="AC29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B30">
         <v>750764562</v>
@@ -7381,7 +7378,7 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" t="s">
         <v>43</v>
@@ -7390,16 +7387,16 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I30" t="s">
         <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s">
         <v>57</v>
@@ -7414,31 +7411,31 @@
         <v>77</v>
       </c>
       <c r="O30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -7456,12 +7453,12 @@
         <v>138</v>
       </c>
       <c r="AC30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31">
         <v>750431517</v>
@@ -7470,7 +7467,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
@@ -7479,16 +7476,16 @@
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
         <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s">
         <v>57</v>
@@ -7503,31 +7500,31 @@
         <v>77</v>
       </c>
       <c r="O31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -7545,7 +7542,7 @@
         <v>137</v>
       </c>
       <c r="AC31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7626,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7686,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7722,43 +7719,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -7769,7 +7766,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2">
         <v>750943504</v>
@@ -7778,7 +7775,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -7787,7 +7784,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H2" s="5">
         <v>243470</v>
@@ -7796,7 +7793,7 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -7811,31 +7808,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -7853,7 +7850,7 @@
         <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -7865,13 +7862,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -7886,31 +7883,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -7918,7 +7915,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="8">
         <v>670008692</v>
@@ -7927,7 +7924,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -7936,13 +7933,13 @@
         <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -7957,31 +7954,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>1037.28</v>
@@ -7999,7 +7996,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -8011,13 +8008,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -8032,31 +8029,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -8064,16 +8061,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -8082,7 +8079,7 @@
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="5">
         <v>243410</v>
@@ -8091,7 +8088,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -8106,31 +8103,31 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>1.17</v>
@@ -8148,7 +8145,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -8157,13 +8154,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -8178,31 +8175,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -8210,16 +8207,16 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
         <v>285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>286</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -8228,7 +8225,7 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="5">
         <v>243410</v>
@@ -8237,7 +8234,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -8252,31 +8249,31 @@
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>1.18</v>
@@ -8294,16 +8291,16 @@
         <v>137</v>
       </c>
       <c r="AC5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -8318,31 +8315,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -8350,7 +8347,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6">
         <v>750905839</v>
@@ -8359,7 +8356,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -8368,16 +8365,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -8392,31 +8389,31 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>0.56999999999999995</v>
@@ -8434,40 +8431,40 @@
         <v>139</v>
       </c>
       <c r="AC6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -8475,7 +8472,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7">
         <v>750406118</v>
@@ -8484,7 +8481,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -8493,16 +8490,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -8517,31 +8514,31 @@
         <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>2.14</v>
@@ -8559,18 +8556,18 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8">
         <v>750911065</v>
@@ -8579,7 +8576,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -8588,16 +8585,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -8612,31 +8609,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>1.37</v>
@@ -8654,21 +8651,21 @@
         <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -8677,13 +8674,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -8698,31 +8695,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>1.31</v>
@@ -8740,21 +8737,21 @@
         <v>140</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -8763,13 +8760,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -8784,31 +8781,31 @@
         <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X10">
         <v>5.3</v>
@@ -8826,15 +8823,15 @@
         <v>137</v>
       </c>
       <c r="AC10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11">
         <v>750911412</v>
@@ -8843,7 +8840,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -8852,7 +8849,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H11" s="5">
         <v>243593</v>
@@ -8861,7 +8858,7 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
@@ -8876,31 +8873,31 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X11">
         <v>1.21</v>
@@ -8918,15 +8915,15 @@
         <v>141</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B12">
         <v>730014657</v>
@@ -8935,7 +8932,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -8944,7 +8941,7 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" s="5">
         <v>243593</v>
@@ -8953,7 +8950,7 @@
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -8968,31 +8965,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -9010,15 +9007,15 @@
         <v>137</v>
       </c>
       <c r="AC12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13">
         <v>750930282</v>
@@ -9027,7 +9024,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -9036,7 +9033,7 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H13" s="5">
         <v>243593</v>
@@ -9045,7 +9042,7 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -9060,31 +9057,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X13">
         <v>38.42</v>
@@ -9102,15 +9099,15 @@
         <v>140</v>
       </c>
       <c r="AC13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B14">
         <v>750764865</v>
@@ -9119,7 +9116,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -9128,16 +9125,16 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -9152,31 +9149,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X14">
         <v>19.86</v>
@@ -9194,68 +9191,68 @@
         <v>138</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9523,7 +9520,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9579,7 +9576,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9632,7 +9629,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9679,7 +9676,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9717,7 +9714,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9734,97 +9731,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10074,7 +10071,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2">
         <v>750774147</v>
@@ -10083,7 +10080,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -10092,7 +10089,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>243440</v>
@@ -10185,7 +10182,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10197,7 +10194,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10253,7 +10250,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10306,7 +10303,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10353,7 +10350,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10391,7 +10388,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10408,97 +10405,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10748,7 +10745,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>750750146</v>
@@ -10757,7 +10754,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -10766,7 +10763,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5">
         <v>243410</v>
@@ -10859,7 +10856,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10871,7 +10868,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10918,7 +10915,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3">
         <v>750346699</v>
@@ -10927,7 +10924,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -10936,7 +10933,7 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -11026,7 +11023,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -11038,7 +11035,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11085,7 +11082,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>750346699</v>
@@ -11094,7 +11091,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -11103,7 +11100,7 @@
         <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -11193,7 +11190,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -11202,7 +11199,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11249,7 +11246,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11287,7 +11284,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11304,97 +11301,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11465,8 +11462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A37DC6-624E-4101-BB6E-C6A6EDED4EED}">
   <dimension ref="A1:BN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11646,7 +11643,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2">
         <v>750911355</v>
@@ -11655,7 +11652,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -11664,7 +11661,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="5">
         <v>243562</v>
@@ -11757,7 +11754,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11769,7 +11766,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11816,7 +11813,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>750897869</v>
@@ -11825,7 +11822,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -11834,7 +11831,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5">
         <v>243410</v>
@@ -11927,7 +11924,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -11939,7 +11936,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11986,7 +11983,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4">
         <v>750962327</v>
@@ -11995,7 +11992,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -12004,10 +12001,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -12097,7 +12094,7 @@
         <v>138</v>
       </c>
       <c r="AL4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -12106,7 +12103,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12150,7 +12147,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5">
         <v>750971619</v>
@@ -12159,7 +12156,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -12168,7 +12165,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="5">
         <v>243410</v>
@@ -12261,13 +12258,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12302,13 +12299,13 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -12317,7 +12314,7 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -12407,13 +12404,13 @@
         <v>138</v>
       </c>
       <c r="AL6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12430,7 +12427,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B7">
         <v>750836331</v>
@@ -12439,7 +12436,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -12448,10 +12445,10 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
@@ -12541,100 +12538,100 @@
         <v>141</v>
       </c>
       <c r="AL7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12884,7 +12881,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2">
         <v>540002407</v>
@@ -12893,7 +12890,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -12902,10 +12899,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -12995,7 +12992,7 @@
         <v>137</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -13007,7 +13004,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -13054,7 +13051,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3">
         <v>630010083</v>
@@ -13063,7 +13060,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -13072,10 +13069,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -13165,7 +13162,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -13177,7 +13174,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -13230,7 +13227,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -13277,7 +13274,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -13315,7 +13312,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -13332,97 +13329,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13659,7 +13656,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -13706,7 +13703,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -13750,7 +13747,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -13788,7 +13785,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13820,7 +13817,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13834,97 +13831,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14143,7 +14140,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2">
         <v>520000555</v>
@@ -14152,7 +14149,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -14161,7 +14158,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5">
         <v>243440</v>
@@ -14242,7 +14239,7 @@
         <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -14254,7 +14251,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -14292,7 +14289,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3">
         <v>750873219</v>
@@ -14301,7 +14298,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -14310,10 +14307,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -14391,7 +14388,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -14403,7 +14400,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -14441,13 +14438,13 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -14456,7 +14453,7 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -14534,7 +14531,7 @@
         <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -14543,7 +14540,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -14578,13 +14575,13 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -14593,7 +14590,7 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -14671,13 +14668,13 @@
         <v>137</v>
       </c>
       <c r="AH5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -14706,7 +14703,7 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6">
         <v>750937195</v>
@@ -14715,7 +14712,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -14724,7 +14721,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="5">
         <v>243501</v>
@@ -14805,13 +14802,13 @@
         <v>139</v>
       </c>
       <c r="AH6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AO6" t="s">
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -14825,7 +14822,7 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7">
         <v>750398494</v>
@@ -14834,7 +14831,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -14843,7 +14840,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H7" s="5">
         <v>243531</v>
@@ -14924,21 +14921,21 @@
         <v>141</v>
       </c>
       <c r="AH7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -15025,15 +15022,15 @@
         <v>138</v>
       </c>
       <c r="AH8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>209</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B9">
         <v>750716062</v>
@@ -15042,7 +15039,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -15051,10 +15048,10 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
@@ -15132,90 +15129,90 @@
         <v>137</v>
       </c>
       <c r="AH9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -15463,7 +15460,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -15519,7 +15516,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -15572,7 +15569,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -15619,7 +15616,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -15654,7 +15651,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -15668,97 +15665,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
